--- a/documenten/logboeken/Logboek Jurriaan.xlsx
+++ b/documenten/logboeken/Logboek Jurriaan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Taak</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>30 min</t>
+  </si>
+  <si>
+    <t>conventies C#</t>
   </si>
 </sst>
 </file>
@@ -375,10 +378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -442,6 +445,17 @@
         <v>42843</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1">
+        <v>42843</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documenten/logboeken/Logboek Jurriaan.xlsx
+++ b/documenten/logboeken/Logboek Jurriaan.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\D181761\Documents\GitHub\fifa\project_fifa\documenten\logboeken\"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>Taak</t>
   </si>
@@ -60,6 +60,24 @@
   </si>
   <si>
     <t>conventies C#</t>
+  </si>
+  <si>
+    <t>interview C# uitwerking</t>
+  </si>
+  <si>
+    <t>interview voorbereiden</t>
+  </si>
+  <si>
+    <t>interview houden</t>
+  </si>
+  <si>
+    <t>C# code realisatie T1</t>
+  </si>
+  <si>
+    <t>C# wireframe</t>
+  </si>
+  <si>
+    <t>45 min</t>
   </si>
 </sst>
 </file>
@@ -378,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -456,6 +474,61 @@
         <v>42843</v>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1">
+        <v>42844</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1">
+        <v>42844</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1">
+        <v>42845</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1">
+        <v>42846</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="1">
+        <v>42846</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documenten/logboeken/Logboek Jurriaan.xlsx
+++ b/documenten/logboeken/Logboek Jurriaan.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="21">
   <si>
     <t>Taak</t>
   </si>
@@ -78,6 +78,15 @@
   </si>
   <si>
     <t>45 min</t>
+  </si>
+  <si>
+    <t>C# code</t>
+  </si>
+  <si>
+    <t>4 uur</t>
+  </si>
+  <si>
+    <t>3 uur</t>
   </si>
 </sst>
 </file>
@@ -118,7 +127,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -396,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -529,6 +538,149 @@
         <v>42846</v>
       </c>
     </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="1">
+        <v>42856</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="1">
+        <v>42857</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="1">
+        <v>42858</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="1">
+        <v>42859</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="1">
+        <v>42863</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="1">
+        <v>42864</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="1">
+        <v>42865</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="1">
+        <v>42870</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="1">
+        <v>42871</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="1">
+        <v>42872</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="1">
+        <v>42873</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="1">
+        <v>42874</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="1">
+        <v>42884</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documenten/logboeken/Logboek Jurriaan.xlsx
+++ b/documenten/logboeken/Logboek Jurriaan.xlsx
@@ -408,7 +408,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -502,7 +502,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="1">
-        <v>42844</v>
+        <v>42845</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">

--- a/documenten/logboeken/Logboek Jurriaan.xlsx
+++ b/documenten/logboeken/Logboek Jurriaan.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="23">
   <si>
     <t>Taak</t>
   </si>
@@ -87,6 +87,12 @@
   </si>
   <si>
     <t>3 uur</t>
+  </si>
+  <si>
+    <t>c# finetunen</t>
+  </si>
+  <si>
+    <t>30/05/2017 - 08/06/2017</t>
   </si>
 </sst>
 </file>
@@ -405,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -681,6 +687,14 @@
         <v>42884</v>
       </c>
     </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
